--- a/Teaching Resources/Lesson Plans.xlsx
+++ b/Teaching Resources/Lesson Plans.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bhavy\OneDrive\Documents\GitHub\Fleming Society_Github\Breadboard-Robot\Teaching Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F60B6A4-B31D-42B7-9015-52CE93693DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6183FFE-AE4A-4214-86C0-831373503AF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{6296BF49-1099-48DA-87A9-3A2BB2A2A0FF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{6296BF49-1099-48DA-87A9-3A2BB2A2A0FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Week Outline" sheetId="1" r:id="rId1"/>
+    <sheet name="CAD Lesson Plan" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <t>Mon 7 Jul</t>
   </si>
@@ -117,6 +118,15 @@
   </si>
   <si>
     <t>Testing the robot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resources links: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Powerpoint link: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lesson aims: </t>
   </si>
 </sst>
 </file>
@@ -435,7 +445,7 @@
     <xf numFmtId="49" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -453,6 +463,51 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -462,9 +517,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -473,48 +525,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -852,7 +862,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A606D5D-6870-4062-95C6-5AFE43C8AAFD}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
@@ -888,7 +898,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="38" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="17" t="s">
@@ -905,24 +915,24 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="24"/>
+      <c r="A3" s="39"/>
       <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="15"/>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="F3" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="31" t="s">
+      <c r="G3" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="32" t="s">
+      <c r="H3" s="26" t="s">
         <v>23</v>
       </c>
       <c r="J3" t="s">
@@ -930,73 +940,73 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="25"/>
+      <c r="A4" s="40"/>
       <c r="B4" s="18" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="15"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="35"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="29"/>
       <c r="J4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="23" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="15"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="37"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="31"/>
       <c r="J5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="41" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="15"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="40"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="34"/>
       <c r="J6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="28"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="15"/>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="42" t="s">
+      <c r="E7" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="42" t="s">
+      <c r="F7" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="42" t="s">
+      <c r="G7" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="43" t="s">
+      <c r="H7" s="37" t="s">
         <v>26</v>
       </c>
       <c r="J7" t="s">
@@ -1004,7 +1014,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="29"/>
+      <c r="A8" s="43"/>
       <c r="B8" s="7" t="s">
         <v>14</v>
       </c>
@@ -1040,4 +1050,34 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8730DE1C-D01F-46F2-8502-AFAEDAB5BFDD}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>